--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111473777</v>
+        <v>111473793</v>
       </c>
       <c r="B3" t="n">
-        <v>89425</v>
+        <v>93388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>2180</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>704301.1177162804</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R3" t="n">
-        <v>6573209.392206083</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,11 +892,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>gammeltall</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -913,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473793</v>
+        <v>111473776</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +920,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703959.3331032015</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R4" t="n">
-        <v>6572805.612961343</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,6 +1004,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473773</v>
+        <v>111473777</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704016.0051346947</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R5" t="n">
-        <v>6572801.994589122</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473776</v>
+        <v>111473779</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703970.8884549731</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R7" t="n">
-        <v>6572810.333898042</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473774</v>
+        <v>111473773</v>
       </c>
       <c r="B8" t="n">
         <v>89405</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703999.5190368021</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R8" t="n">
-        <v>6572850.823973293</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473782</v>
+        <v>111473791</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>93289</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>2170</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704171.5165585374</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R9" t="n">
-        <v>6572850.843097115</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1589,6 +1589,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>låga av tall</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1605,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473775</v>
+        <v>111473782</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89183</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1617,25 +1622,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1645,10 +1650,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703969.3444121893</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R10" t="n">
-        <v>6572791.287347207</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1701,11 +1706,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473779</v>
+        <v>111473784</v>
       </c>
       <c r="B11" t="n">
-        <v>89425</v>
+        <v>73634</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704193.4830821306</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R11" t="n">
-        <v>6572948.378178579</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473792</v>
+        <v>111473774</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,43 +1851,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703965.55072247</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R12" t="n">
-        <v>6572785.445717536</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,7 +1938,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1961,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473791</v>
+        <v>111473775</v>
       </c>
       <c r="B13" t="n">
-        <v>93289</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,25 +1968,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2170</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>704004.9502936595</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R13" t="n">
-        <v>6572835.740028554</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2055,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473784</v>
+        <v>111473792</v>
       </c>
       <c r="B14" t="n">
-        <v>73634</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,34 +2089,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6426</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>704135.470341172</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R14" t="n">
-        <v>6572843.267234835</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>äldre gran</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473776</v>
+        <v>111473791</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>93289</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,25 +920,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2170</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703970.8884549731</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R4" t="n">
-        <v>6572810.333898042</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>låga av tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473777</v>
+        <v>111473784</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>73634</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>6426</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704301.1177162804</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R5" t="n">
-        <v>6573209.392206083</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473783</v>
+        <v>111473776</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703998.3853129407</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R6" t="n">
-        <v>6572852.813158008</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473779</v>
+        <v>111473773</v>
       </c>
       <c r="B7" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704193.4830821306</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R7" t="n">
-        <v>6572948.378178579</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473773</v>
+        <v>111473775</v>
       </c>
       <c r="B8" t="n">
         <v>89405</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>704016.0051346947</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R8" t="n">
-        <v>6572801.994589122</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473791</v>
+        <v>111473779</v>
       </c>
       <c r="B9" t="n">
-        <v>93289</v>
+        <v>89425</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,25 +1505,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2170</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704004.9502936595</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R9" t="n">
-        <v>6572835.740028554</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473784</v>
+        <v>111473783</v>
       </c>
       <c r="B11" t="n">
-        <v>73634</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704135.470341172</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R11" t="n">
-        <v>6572843.267234835</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>äldre gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473774</v>
+        <v>111473792</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,38 +1851,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703999.5190368021</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R12" t="n">
-        <v>6572850.823973293</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1938,7 +1943,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1956,7 +1961,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473775</v>
+        <v>111473774</v>
       </c>
       <c r="B13" t="n">
         <v>89405</v>
@@ -1996,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703969.3444121893</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R13" t="n">
-        <v>6572791.287347207</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473792</v>
+        <v>111473777</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>89425</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2085,43 +2090,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703965.55072247</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R14" t="n">
-        <v>6572785.445717536</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111473793</v>
+        <v>111473774</v>
       </c>
       <c r="B3" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>703959.3331032015</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R3" t="n">
-        <v>6572805.612961343</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,6 +892,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -908,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473791</v>
+        <v>111473777</v>
       </c>
       <c r="B4" t="n">
-        <v>93289</v>
+        <v>89425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2170</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -948,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704004.9502936595</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R4" t="n">
-        <v>6572835.740028554</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +1012,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1025,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473784</v>
+        <v>111473779</v>
       </c>
       <c r="B5" t="n">
-        <v>73634</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1042,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6426</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704135.470341172</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R5" t="n">
-        <v>6572843.267234835</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1129,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>äldre gran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1142,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473776</v>
+        <v>111473793</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>93388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1159,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703970.8884549731</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R6" t="n">
-        <v>6572810.333898042</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,11 +1243,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1259,7 +1259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473773</v>
+        <v>111473775</v>
       </c>
       <c r="B7" t="n">
         <v>89405</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704016.0051346947</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R7" t="n">
-        <v>6572801.994589122</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473775</v>
+        <v>111473783</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,21 +1392,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703969.3444121893</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R8" t="n">
-        <v>6572791.287347207</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473779</v>
+        <v>111473776</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1509,21 +1509,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704193.4830821306</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R9" t="n">
-        <v>6572948.378178579</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473783</v>
+        <v>111473784</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>73634</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703998.3853129407</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R11" t="n">
-        <v>6572852.813158008</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473792</v>
+        <v>111473773</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,43 +1851,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703965.55072247</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R12" t="n">
-        <v>6572785.445717536</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,7 +1938,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1961,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473774</v>
+        <v>111473792</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +1968,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703999.5190368021</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R13" t="n">
-        <v>6572850.823973293</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473777</v>
+        <v>111473791</v>
       </c>
       <c r="B14" t="n">
-        <v>89425</v>
+        <v>93289</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2090,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5442</v>
+        <v>2170</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>704301.1177162804</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R14" t="n">
-        <v>6573209.392206083</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>låga av tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473777</v>
+        <v>111473783</v>
       </c>
       <c r="B4" t="n">
-        <v>89425</v>
+        <v>89686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704301.1177162804</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R4" t="n">
-        <v>6573209.392206083</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473779</v>
+        <v>111473792</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,38 +1042,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704193.4830821306</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R5" t="n">
-        <v>6572948.378178579</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1134,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1147,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473793</v>
+        <v>111473779</v>
       </c>
       <c r="B6" t="n">
-        <v>93388</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,25 +1164,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1187,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703959.3331032015</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R6" t="n">
-        <v>6572805.612961343</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,6 +1248,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1259,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473775</v>
+        <v>111473777</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703969.3444121893</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R7" t="n">
-        <v>6572791.287347207</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,7 +1368,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1376,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473783</v>
+        <v>111473784</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>73634</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,25 +1398,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>6426</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1416,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703998.3853129407</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R8" t="n">
-        <v>6572852.813158008</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1475,7 +1485,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1610,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473782</v>
+        <v>111473791</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>93289</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,21 +1636,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>2170</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1650,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704171.5165585374</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R10" t="n">
-        <v>6572850.843097115</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,6 +1716,11 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>låga av tall</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1722,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473784</v>
+        <v>111473782</v>
       </c>
       <c r="B11" t="n">
-        <v>73634</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1738,21 +1753,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1762,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704135.470341172</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R11" t="n">
-        <v>6572843.267234835</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1818,11 +1833,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>äldre gran</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1839,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473773</v>
+        <v>111473793</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>93388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,25 +1861,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1879,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>704016.0051346947</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R12" t="n">
-        <v>6572801.994589122</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1935,11 +1945,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1956,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473792</v>
+        <v>111473775</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1968,43 +1973,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703965.55072247</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R13" t="n">
-        <v>6572785.445717536</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473791</v>
+        <v>111473773</v>
       </c>
       <c r="B14" t="n">
-        <v>93289</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2090,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2170</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>704004.9502936595</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R14" t="n">
-        <v>6572835.740028554</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111473774</v>
+        <v>111473791</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>93289</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>2170</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>703999.5190368021</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R3" t="n">
-        <v>6572850.823973293</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>låga av tall</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473783</v>
+        <v>111473792</v>
       </c>
       <c r="B4" t="n">
-        <v>89686</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,38 +925,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703998.3853129407</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R4" t="n">
-        <v>6572852.813158008</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,7 +1017,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1030,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473792</v>
+        <v>111473782</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,39 +1051,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>703965.55072247</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R5" t="n">
-        <v>6572785.445717536</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,11 +1131,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>torrgran</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1152,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473779</v>
+        <v>111473775</v>
       </c>
       <c r="B6" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,21 +1163,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1192,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>704193.4830821306</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R6" t="n">
-        <v>6572948.378178579</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,7 +1246,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1269,7 +1264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473777</v>
+        <v>111473779</v>
       </c>
       <c r="B7" t="n">
         <v>89425</v>
@@ -1309,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704301.1177162804</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R7" t="n">
-        <v>6573209.392206083</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473784</v>
+        <v>111473793</v>
       </c>
       <c r="B8" t="n">
-        <v>73634</v>
+        <v>93388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,21 +1397,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6426</v>
+        <v>2180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1426,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>704135.470341172</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R8" t="n">
-        <v>6572843.267234835</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,11 +1477,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>äldre gran</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1620,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473791</v>
+        <v>111473773</v>
       </c>
       <c r="B10" t="n">
-        <v>93289</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,25 +1622,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2170</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1650,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704004.9502936595</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R10" t="n">
-        <v>6572835.740028554</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1719,7 +1709,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1737,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473782</v>
+        <v>111473784</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>73634</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,21 +1743,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1777,10 +1767,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704171.5165585374</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R11" t="n">
-        <v>6572850.843097115</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1833,6 +1823,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>äldre gran</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1849,10 +1844,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473793</v>
+        <v>111473774</v>
       </c>
       <c r="B12" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,25 +1856,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703959.3331032015</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R12" t="n">
-        <v>6572805.612961343</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,6 +1940,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1961,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473775</v>
+        <v>111473777</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703969.3444121893</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R13" t="n">
-        <v>6572791.287347207</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473773</v>
+        <v>111473783</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,21 +2094,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>704016.0051346947</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R14" t="n">
-        <v>6572801.994589122</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111473791</v>
+        <v>111473773</v>
       </c>
       <c r="B3" t="n">
-        <v>93289</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2170</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>704004.9502936595</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R3" t="n">
-        <v>6572835.740028554</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473792</v>
+        <v>111473779</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>89425</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,43 +925,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703965.55072247</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R4" t="n">
-        <v>6572785.445717536</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,7 +1012,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1035,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473782</v>
+        <v>111473777</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,25 +1042,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704171.5165585374</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R5" t="n">
-        <v>6572850.843097115</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1131,6 +1126,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1147,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473775</v>
+        <v>111473792</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,38 +1159,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703969.3444121893</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R6" t="n">
-        <v>6572791.287347207</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,7 +1251,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1264,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473779</v>
+        <v>111473784</v>
       </c>
       <c r="B7" t="n">
-        <v>89425</v>
+        <v>73634</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,25 +1281,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>6426</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704193.4830821306</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R7" t="n">
-        <v>6572948.378178579</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1363,7 +1368,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1493,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473776</v>
+        <v>111473774</v>
       </c>
       <c r="B9" t="n">
         <v>89405</v>
@@ -1533,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703970.8884549731</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R9" t="n">
-        <v>6572810.333898042</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1610,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473773</v>
+        <v>111473782</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89183</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1650,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704016.0051346947</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R10" t="n">
-        <v>6572801.994589122</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,11 +1711,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1727,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473784</v>
+        <v>111473791</v>
       </c>
       <c r="B11" t="n">
-        <v>73634</v>
+        <v>93289</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,21 +1743,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>2170</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704135.470341172</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R11" t="n">
-        <v>6572843.267234835</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>äldre gran</t>
+          <t>låga av tall</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473774</v>
+        <v>111473775</v>
       </c>
       <c r="B12" t="n">
         <v>89405</v>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703999.5190368021</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R12" t="n">
-        <v>6572850.823973293</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473777</v>
+        <v>111473776</v>
       </c>
       <c r="B13" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>704301.1177162804</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R13" t="n">
-        <v>6573209.392206083</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111473773</v>
+        <v>111473784</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>73634</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>704016.0051346947</v>
+        <v>704135.470341172</v>
       </c>
       <c r="R3" t="n">
-        <v>6572801.994589122</v>
+        <v>6572843.267234835</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>äldre gran</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473779</v>
+        <v>111473775</v>
       </c>
       <c r="B4" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,21 +929,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704193.4830821306</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R4" t="n">
-        <v>6572948.378178579</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473777</v>
+        <v>111473782</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,25 +1042,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704301.1177162804</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R5" t="n">
-        <v>6573209.392206083</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,11 +1126,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>gammeltall</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1147,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473792</v>
+        <v>111473783</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,43 +1154,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703965.55072247</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R6" t="n">
-        <v>6572785.445717536</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,7 +1241,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1269,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473784</v>
+        <v>111473774</v>
       </c>
       <c r="B7" t="n">
-        <v>73634</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,25 +1271,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1309,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>704135.470341172</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R7" t="n">
-        <v>6572843.267234835</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,7 +1358,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>äldre gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1386,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473793</v>
+        <v>111473792</v>
       </c>
       <c r="B8" t="n">
-        <v>93388</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,34 +1392,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2180</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703959.3331032015</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R8" t="n">
-        <v>6572805.612961343</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,6 +1477,11 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>torrgran</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1498,7 +1498,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473774</v>
+        <v>111473773</v>
       </c>
       <c r="B9" t="n">
         <v>89405</v>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703999.5190368021</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R9" t="n">
-        <v>6572850.823973293</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473782</v>
+        <v>111473791</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>93289</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,21 +1631,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>2170</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704171.5165585374</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R10" t="n">
-        <v>6572850.843097115</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,6 +1711,11 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>låga av tall</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1727,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473791</v>
+        <v>111473793</v>
       </c>
       <c r="B11" t="n">
-        <v>93289</v>
+        <v>93388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,21 +1748,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1767,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704004.9502936595</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R11" t="n">
-        <v>6572835.740028554</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1823,11 +1828,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>låga av tall</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1844,7 +1844,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473775</v>
+        <v>111473776</v>
       </c>
       <c r="B12" t="n">
         <v>89405</v>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703969.3444121893</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R12" t="n">
-        <v>6572791.287347207</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473776</v>
+        <v>111473779</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703970.8884549731</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R13" t="n">
-        <v>6572810.333898042</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111473783</v>
+        <v>111473777</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89425</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2094,21 +2094,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>5442</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703998.3853129407</v>
+        <v>704301.1177162804</v>
       </c>
       <c r="R14" t="n">
-        <v>6572852.813158008</v>
+        <v>6573209.392206083</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473775</v>
+        <v>111473782</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>703969.3444121893</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R4" t="n">
-        <v>6572791.287347207</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,11 +1009,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1030,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473782</v>
+        <v>111473779</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704171.5165585374</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R5" t="n">
-        <v>6572850.843097115</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1126,6 +1121,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>gammeltall</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473783</v>
+        <v>111473775</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703998.3853129407</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R6" t="n">
-        <v>6572852.813158008</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473774</v>
+        <v>111473783</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703999.5190368021</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R7" t="n">
-        <v>6572850.823973293</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473792</v>
+        <v>111473774</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,43 +1388,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703965.55072247</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R8" t="n">
-        <v>6572785.445717536</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1480,7 +1475,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1498,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473773</v>
+        <v>111473792</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,38 +1505,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>704016.0051346947</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R9" t="n">
-        <v>6572801.994589122</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473791</v>
+        <v>111473773</v>
       </c>
       <c r="B10" t="n">
-        <v>93289</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2170</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704004.9502936595</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R10" t="n">
-        <v>6572835.740028554</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>låga av tall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473793</v>
+        <v>111473791</v>
       </c>
       <c r="B11" t="n">
-        <v>93388</v>
+        <v>93289</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,21 +1748,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703959.3331032015</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R11" t="n">
-        <v>6572805.612961343</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,6 +1828,11 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>låga av tall</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1844,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473776</v>
+        <v>111473793</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>93388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,25 +1861,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1884,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703970.8884549731</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R12" t="n">
-        <v>6572810.333898042</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,11 +1945,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1961,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473779</v>
+        <v>111473776</v>
       </c>
       <c r="B13" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>704193.4830821306</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R13" t="n">
-        <v>6572948.378178579</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gammeltall</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>

--- a/artfynd/A 48658-2022.xlsx
+++ b/artfynd/A 48658-2022.xlsx
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111473782</v>
+        <v>111473775</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>704171.5165585374</v>
+        <v>703969.3444121893</v>
       </c>
       <c r="R4" t="n">
-        <v>6572850.843097115</v>
+        <v>6572791.287347207</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,6 +1009,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1025,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111473779</v>
+        <v>111473782</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1042,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>704193.4830821306</v>
+        <v>704171.5165585374</v>
       </c>
       <c r="R5" t="n">
-        <v>6572948.378178579</v>
+        <v>6572850.843097115</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,11 +1126,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>gammeltall</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111473775</v>
+        <v>111473783</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703969.3444121893</v>
+        <v>703998.3853129407</v>
       </c>
       <c r="R6" t="n">
-        <v>6572791.287347207</v>
+        <v>6572852.813158008</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111473783</v>
+        <v>111473774</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703998.3853129407</v>
+        <v>703999.5190368021</v>
       </c>
       <c r="R7" t="n">
-        <v>6572852.813158008</v>
+        <v>6572850.823973293</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111473774</v>
+        <v>111473792</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,38 +1388,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703999.5190368021</v>
+        <v>703965.55072247</v>
       </c>
       <c r="R8" t="n">
-        <v>6572850.823973293</v>
+        <v>6572785.445717536</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1475,7 +1480,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1493,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111473792</v>
+        <v>111473773</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,43 +1510,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Östra Ingarö, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703965.55072247</v>
+        <v>704016.0051346947</v>
       </c>
       <c r="R9" t="n">
-        <v>6572785.445717536</v>
+        <v>6572801.994589122</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111473773</v>
+        <v>111473791</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>93289</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>2170</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704016.0051346947</v>
+        <v>704004.9502936595</v>
       </c>
       <c r="R10" t="n">
-        <v>6572801.994589122</v>
+        <v>6572835.740028554</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>låga av tall</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111473791</v>
+        <v>111473793</v>
       </c>
       <c r="B11" t="n">
-        <v>93289</v>
+        <v>93388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,21 +1748,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2170</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704004.9502936595</v>
+        <v>703959.3331032015</v>
       </c>
       <c r="R11" t="n">
-        <v>6572835.740028554</v>
+        <v>6572805.612961343</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,11 +1828,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>låga av tall</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1849,10 +1844,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111473793</v>
+        <v>111473776</v>
       </c>
       <c r="B12" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,25 +1856,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703959.3331032015</v>
+        <v>703970.8884549731</v>
       </c>
       <c r="R12" t="n">
-        <v>6572805.612961343</v>
+        <v>6572810.333898042</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1945,6 +1940,11 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1961,10 +1961,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111473776</v>
+        <v>111473779</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703970.8884549731</v>
+        <v>704193.4830821306</v>
       </c>
       <c r="R13" t="n">
-        <v>6572810.333898042</v>
+        <v>6572948.378178579</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammeltall</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
